--- a/TestData/Team7_Scraping_Spatulas_ScrapedRecipes.xlsx
+++ b/TestData/Team7_Scraping_Spatulas_ScrapedRecipes.xlsx
@@ -6,13 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Diabetes" r:id="rId3" sheetId="1"/>
+    <sheet name="HYPOTHYROIDISM" r:id="rId3" sheetId="1"/>
+    <sheet name="TOADD_RECIPES" r:id="rId4" sheetId="2"/>
+    <sheet name="HYPOTHROIDISM" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="248">
   <si>
     <t>RecipeID</t>
   </si>
@@ -47,22 +49,28 @@
     <t>Nutrients</t>
   </si>
   <si>
+    <t>Allergy Info</t>
+  </si>
+  <si>
+    <t>Recipe_Name</t>
+  </si>
+  <si>
+    <t>37154</t>
+  </si>
+  <si>
+    <t>A Checkerboard Of Roses ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>VEGAN</t>
+  </si>
+  <si>
     <t>30 mins</t>
   </si>
   <si>
     <t>0 mins</t>
-  </si>
-  <si>
-    <t>37154</t>
-  </si>
-  <si>
-    <t>A Checkerboard Of Roses ( Flower Arrangements)</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>VEGAN</t>
   </si>
   <si>
     <t>Thing You Will Need
@@ -82,22 +90,28 @@
 If you find asparagus difficult to find, use small drumsticks instead.</t>
   </si>
   <si>
-    <t>DIABETES</t>
+    <t>HYPOTHYROIDISM</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/a-checkerboard-of-roses--flower-arrangements-37154r</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>30888</t>
+  </si>
+  <si>
+    <t>Achari Baingan</t>
+  </si>
+  <si>
+    <t>EGGETARIAN</t>
+  </si>
+  <si>
     <t>15 mins</t>
-  </si>
-  <si>
-    <t>30888</t>
-  </si>
-  <si>
-    <t>Achari Baingan</t>
-  </si>
-  <si>
-    <t>EGGETARIAN</t>
   </si>
   <si>
     <t>To Be Mixed Into A Marinade
@@ -144,19 +158,300 @@
     <t>https://www.tarladalal.com/achari-baingan-30888r</t>
   </si>
   <si>
+    <t>Energy 215 cal
+Protein 3.1 g
+Carbohydrates 6 g
+Fiber 4 g
+Fat 19.2 g
+Cholesterol 6 mg
+Sodium 18 mg</t>
+  </si>
+  <si>
+    <t>30922</t>
+  </si>
+  <si>
+    <t>Achari Chana Pulao, Pickled Kabuli Chana Pulao</t>
+  </si>
+  <si>
+    <t>LUNCH</t>
+  </si>
+  <si>
+    <t>VEGETARIAN</t>
+  </si>
+  <si>
+    <t>For Achari Chana Pulao
+2 tbsp aam ka achaar
+1/2 cup soaked and boiled kabuli chana (white chick peas)
+1 1/4 cups long grained rice (basmati)
+2 tbsp melted ghee
+1 tsp fennel seeds (saunf)
+1 tsp mustard seeds ( rai / sarson)
+1 tsp fenugreek (methi) seeds
+1 tsp nigella seeds (kalonji)
+2 black cardamom (badi elaichi)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+1/2 cup sliced onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1/2 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp garam masala
+salt to taste
+For The Garnish
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For achari chana pulao
+To make achari chana pulao, blend the mango pickle in a mixer to a coarse paste. Keep aside.
+Clean, wash and soak the rice for 10 minutes. Drain and keep aside.
+Heat the ghee in a pressure cooker, add the fennel seeds, mustard seeds, fenugreek seeds, nigella seeds, big cardamom, cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the ginger-garlic paste, kabuli chana, turmeric powder, chilli powder, garam masala, salt and the prepared pickle paste, mix well and cook on a medium flame for 1 minute.
+Add the rice, mix well and cook on a medium flame for 1 minute.
+Add the 2½ cups hot water, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Serve achari chana pulao hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-chana-pulao-pickled-kabuli-chana-pulao-30922r</t>
+  </si>
+  <si>
+    <t>Energy 475 cal
+Protein 6.1 g
+Carbohydrates 66.9 g
+Fiber 5.9 g
+Fat 20.2 g
+Cholesterol 0 mg
+Sodium 7784.3 mg</t>
+  </si>
+  <si>
+    <t>22779</t>
+  </si>
+  <si>
+    <t>Achari Dahi Bhindi, Punjabi Sabji</t>
+  </si>
+  <si>
     <t>10 mins</t>
   </si>
   <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>For Achari Dahi Bhindi
+4 cups sliced ladies finger (bhindi)
+5 tbsp oil
+2 tsp fennel seeds (saunf)
+2 tsp mustard seeds ( rai / sarson)
+1/2 tsp nigella seeds (kalonji)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp asafoetida (hing)
+2 tsp finely chopped ginger (adrak)
+3/4 cup chopped tomatoes
+salt to taste
+To Be Mixed Into A Curd Mixture
+1/2 cup whisked curds (dahi)
+1 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+salt to taste
+For Serving With Achari Dahi Bhindi
+rotis/parathas</t>
+  </si>
+  <si>
+    <t>To make achari dahi bhindi, heat 4 tbsp of oil in a broad non-stick pan, add the ladies finger, mix gently and cook on a medium flame for 5 to 6 minutes, while tossing occasionally. Remove in a deep bowl and keep aside.
+Heat the remaining 1 tbsp of oil in the same broad non-stick pan, add the fennel seeds, mustard seeds, nigella seeds, fenugreek seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the ginger and sauté on a medium flame for 30 more seconds.
+Add the tomatoes, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Lower the flame, add the curd mixture, mix well and cook for 1 minute, while stirring continuously.
+Add the shallow-fried ladies finger and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Serve the achari dahi bhindi hot with rotis or parathas.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-dahi-bhindi-punjabi--sabji-22779r</t>
+  </si>
+  <si>
+    <t>Energy 328 cal
+Protein 4.8 g
+Carbohydrates 13.3 g
+Fiber 6.4 g
+Fat 27.6 g
+Cholesterol 5.3 mg
+Sodium 22.4 mg</t>
+  </si>
+  <si>
+    <t>1736</t>
+  </si>
+  <si>
+    <t>Achari Paneer</t>
+  </si>
+  <si>
+    <t>DINNER</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>For Achari Paneer
+1 cup paneer (cottage cheese) cubes
+1 tbsp oil
+1 tsp fennel seeds (saunf)
+1/4 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1 tsp nigella seeds (kalonji)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+1/2 cup thinly sliced onions
+1/2 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp black salt (sanchal)
+3/4 cup whisked curds (dahi)
+1 tsp plain flour (maida)
+2 tbsp chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>For achari paneer
+To make achari paneer, heat the oil in a deep non-stick pan, add the fennel seeds, mustard seeds, fenugreek seeds, nigella seeds, cumin seeds and asafoetida and sauté on a medium flame for 1 minute.
+Add the onion and sauté on a medium flame for 2 minutes.
+Add the paneer, turmeric, chilli powder, black salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the curds, plain flour, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and salt and mix well.
+Serve the achari paneer hot with rice or rotis.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-1736r</t>
+  </si>
+  <si>
+    <t>Energy 381 cal
+Protein 13.4 g
+Carbohydrates 12.8 g
+Fiber 0.2 g
+Fat 29 g
+Cholesterol 12 mg
+Sodium 16.8 mg</t>
+  </si>
+  <si>
+    <t>7555</t>
+  </si>
+  <si>
+    <t>Achari Paneer Pulao, Paneer Tikka Rice</t>
+  </si>
+  <si>
+    <t>JAIN</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>For Achari Paneer
+1 1/4 cups paneer (cottage cheese) cubes
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1/2 tsp fenugreek (methi) seeds
+1 tsp cumin seeds (jeera)
+1 tsp nigella seeds (kalonji)
+1 tsp fennel seeds (saunf)
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1/2 cup whisked curds (dahi)
+1 tbsp readymade green chilli pickle
+salt to taste
+Other Ingredients For Achari Paneer Pulao
+3 cups cooked rice (chawal)
+1 tbsp oil
+1 to 2 cinnamon (dalchini) sticks
+2 cloves (laung / lavang)
+1/2 tsp caraway seeds (shahjeera)
+2 cardamoms (elaichi)
+salt to taste
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For achari paneer
+Heat the oil in a kadhai, add the mustard seeds, fenugreek seeds, cumin seeds, nigella seeds and fennel seeds.
+When the seeds crackle, add the turmeric powder, chilli powder and switch off the flame.
+Add the curds and mix well.
+Add the green chilli pickle and salt and mix well.
+Add the paneer cubes, mix gently and keep aside to marinate for 30 minutes.
+How to proceed
+To make the achari paneer pulao, heat the oil in a non-stick pan, add the cinnamon, cloves, caraway seeds and cardamom.
+When the caraway seeds crackle, add the rice and salt, mix well and cook on medium flame for 1 minute, while stirring continuously.
+Add the marinated paneer, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Serve the achari paneer pulao hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-pulao-paneer-tikka-rice-7555r</t>
+  </si>
+  <si>
+    <t>Energy 377 cal
+Protein 10.1 g
+Carbohydrates 38.5 g
+Fiber 0.1 g
+Fat 19.7 g
+Cholesterol 4 mg
+Sodium 7.8 mg</t>
+  </si>
+  <si>
+    <t>4772</t>
+  </si>
+  <si>
+    <t>Achari Paneer Tikka</t>
+  </si>
+  <si>
+    <t>SNACK</t>
+  </si>
+  <si>
+    <t>For The Achari Marinade
+1 tbsp green chilli pickle
+1/2 cup hung curds (chakka dahi)
+1 tsp chopped garlic (lehsun)
+1 tsp fennel seeds (saunf)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp nigella seeds (kalonji)
+1 tsp cumin seeds (jeera)
+1/4 tsp turmeric powder (haldi)
+1 tbsp mustard (rai / sarson) oil
+salt to taste
+Other Ingredients For Achari Paneer Tikka
+1 1/2 cups paneer (cottage cheese) cubes
+oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>For the achari marinade
+Combine all the ingredients, except the curds in a mixer and blend to a coarse mixture.
+Transfer the mixture into a deep bowl, add the curds and mix well.
+How to proceed to make achari paneer tikka
+Add the paneer to the prepared achari marinade, mix gently and keep aside to marinate for 20 minutes.
+Arrange the marinated paneer cubes equally on satay sticks and keep aside.
+Heat a non-stick tava (griddle), grease it with little oil, place a few satays on it and cook on a medium flame, using a little oil, till they turn golden brown in colour from all the sides.
+Repeat step 3 to cook more satays.
+Serve the achari paneer tikka immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-tikka-4772r</t>
+  </si>
+  <si>
+    <t>Energy 295 cal
+Protein 9.4 g
+Carbohydrates 6.8 g
+Fiber 0 g
+Fat 24.4 g
+Cholesterol 8 mg
+Sodium 9.5 mg</t>
+  </si>
+  <si>
+    <t>22270</t>
+  </si>
+  <si>
+    <t>Adai , Diabetic Adai Recipe</t>
+  </si>
+  <si>
+    <t>BREAKFAST</t>
+  </si>
+  <si>
     <t>40 mins</t>
-  </si>
-  <si>
-    <t>22270</t>
-  </si>
-  <si>
-    <t>Adai , Diabetic Adai Recipe</t>
-  </si>
-  <si>
-    <t>BREAKFAST</t>
   </si>
   <si>
     <t>For Adai
@@ -187,6 +482,15 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/adai--diabetic-adai-recipe-22270r</t>
+  </si>
+  <si>
+    <t>Energy 53 cal
+Protein 2.2 g
+Carbohydrates 8.3 g
+Fiber 0.8 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 2.3 mg</t>
   </si>
   <si>
     <t>534</t>
@@ -230,50 +534,69 @@
     <t>https://www.tarladalal.com/adai-recipe-adai-dosa-breakfast-534r</t>
   </si>
   <si>
-    <t>33240</t>
-  </si>
-  <si>
-    <t>Adai, Protein Rich Adai Recipe</t>
-  </si>
-  <si>
-    <t>1/2 cup raw rice (chawal)
-1/4 cup toovar (arhar) dal
-1/4 cup chana dal (split bengal gram)
-1/4 cup urad dal (split black lentils)
-5 to 6 whole dry kashmiri red chillies , broken into pieces
-a pinch of asafoetida (hing)
-2 tbsp freshly grated coconut
-1/4 cup grated carrot
-1/4 cup finely chopped cabbage
-1/2 cup finely chopped onions
-1/4 cup finely chopped coriander (dhania)
-1 tbsp finely chopped curry leaves (kadi patta)
+    <t>Energy 114 cal
+Protein 3.8 g
+Carbohydrates 21.7 g
+Fiber 1.8 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 6.9 mg</t>
+  </si>
+  <si>
+    <t>cashew</t>
+  </si>
+  <si>
+    <t>30939</t>
+  </si>
+  <si>
+    <t>Afghani Paneer</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>For Afghani Paneer
+2 cups paneer (cottage cheese) cubes
+To Be Ground Into A Smooth Powder
+1 tbsp melon seeds (charmagaz)
+3 tbsp cashew nuts (kaju)
+1 tbsp poppy seeds (khus-khus)
+To Be Mixed Into A Marinade
+1/4 cup fresh cream
+2 tbsp milk
+2 tbsp butter
+1 tsp white pepper powder
+1 tsp garam masala
+1 tsp green chilli paste
 salt to taste
-3 3/4 tsp oil for cooking</t>
-  </si>
-  <si>
-    <t>Clean, wash and soak the rice, dals and dry red chillies in enough water for 2 hours.
-Drain and blend in a mixer to a coarse paste using approx. 1¼ cups of water.
-Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
-Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
-Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
-Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the adai turns golden brown in colour and crisp.
-Turnover and cook on another side as well.
-Fold over to make a semi-circle.
-Repeat with the remaining batter to make 14 more adais.
+Other Ingredients For Afghani Paneer
+oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Combine the paneer, prepared powder and prepared marinade in a deep bowl and mix gently.
+Keep aside for 2 hours.
+Thread 6 pieces of the marinaded paneer in each satay stick or a skewer.
+Heat a non-stick tava(griddle), grease it with little oil, place 4 marinated paneer satays on it and cook using a little oil on a medium flame for approx. 10 minutes or till they turn brown in colour from all the sides.
+Repeat steps 3 and 4 to make 4 more satays.
 Serve immediately.</t>
   </si>
   <si>
-    <t>https://www.tarladalal.com/adai-protein-rich-adai-recipe-33240r</t>
+    <t>https://www.tarladalal.com/afghani-paneer-30939r</t>
+  </si>
+  <si>
+    <t>Energy 219 cal
+Protein 5.9 g
+Carbohydrates 4 g
+Fiber 0.1 g
+Fat 19.9 g
+Cholesterol 8.1 mg
+Sodium 28.1 mg</t>
   </si>
   <si>
     <t>42874</t>
   </si>
   <si>
     <t>Air Fried Bhindi, Healthy Air Fryer Crispy Okra</t>
-  </si>
-  <si>
-    <t>SNACK</t>
   </si>
   <si>
     <t>For Air Fried Bhindi
@@ -296,16 +619,22 @@
     <t>https://www.tarladalal.com/air-fried-bhindi-healthy-air-fryer-crispy-okra-42874r</t>
   </si>
   <si>
-    <t>5 mins</t>
+    <t>Energy 43 cal
+Protein 1.9 g
+Carbohydrates 6.3 g
+Fiber 3.6 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 394.4 mg</t>
+  </si>
+  <si>
+    <t>42873</t>
+  </si>
+  <si>
+    <t>Air Fried Shakarkand, Indian Style Sweet Potato Fries</t>
   </si>
   <si>
     <t>14 mins</t>
-  </si>
-  <si>
-    <t>42873</t>
-  </si>
-  <si>
-    <t>Air Fried Shakarkand, Indian Style Sweet Potato Fries</t>
   </si>
   <si>
     <t>For Air Fried Shakarkand
@@ -330,19 +659,25 @@
     <t>https://www.tarladalal.com/air-fried-shakarkand-indian-style-sweet-potato-fries-42873r</t>
   </si>
   <si>
+    <t>Energy 159 cal
+Protein 1.4 g
+Carbohydrates 33.1 g
+Fiber 4.6 g
+Fat 2.4 g
+Cholesterol 0 mg
+Sodium 204.4 mg</t>
+  </si>
+  <si>
+    <t>4231</t>
+  </si>
+  <si>
+    <t>Ajwain and Turmeric Milk</t>
+  </si>
+  <si>
     <t>2 mins</t>
   </si>
   <si>
     <t>3 mins</t>
-  </si>
-  <si>
-    <t>4231</t>
-  </si>
-  <si>
-    <t>Ajwain and Turmeric Milk</t>
-  </si>
-  <si>
-    <t>VEGETARIAN</t>
   </si>
   <si>
     <t>For Ajwain and Turmeric Milk
@@ -361,10 +696,13 @@
     <t>https://www.tarladalal.com/ajwain-and-turmeric-milk-4231r</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>20 mins</t>
+    <t>Energy 234 cal
+Protein 8.6 g
+Carbohydrates 10 g
+Fiber 0 g
+Fat 13 g
+Cholesterol 32 mg
+Sodium 38 mg</t>
   </si>
   <si>
     <t>36111</t>
@@ -395,6 +733,48 @@
     <t>https://www.tarladalal.com/ajwain-leaf-kadhi-36111r</t>
   </si>
   <si>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>41134</t>
+  </si>
+  <si>
+    <t>Almond Berry and Coconut Cake, For Fitness and Weight Loss</t>
+  </si>
+  <si>
+    <t>1 cup almonds (badam)
+1/4 tsp sea salt
+1/4 cup coconut oil
+3 tbsp honey
+1 tsp vanilla extract
+1/2 cup freshly grated coconut
+1/2 cup pumpkin seeds
+1/2 cup sunflower seeds (surajmukhi ke beej)
+1/4 cup almond (badam) slivers
+1/4 cup frozen blueberries
+coconut oil for greasing</t>
+  </si>
+  <si>
+    <t>Soak the almonds in enough hot water, cover with a lid and keep aside for 1 hour. Drain and peel them.
+Blend in a mixer along with the sea salt and blend well. Keep aside.
+Combine the coconut oil, honey, vanilla essence, 1 tbsp of water in a deep bowl and mix well using a spatula.
+Add all the other ingredients including the almond mixture and mix very well using a spatula.
+Grease a 175 mm. ( 7”) diameter aluminium tin with coconut oil, put the mixture into it and even it out using a spatula. Bake in a pre-heated oven at 200ºc (400ºf) for 20 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-berry-and-coconut-cake-for-fitness-and-weight-loss-41134r</t>
+  </si>
+  <si>
+    <t>Energy 388 cal
+Protein 8.6 g
+Carbohydrates 18.1 g
+Fiber 2.8 g
+Fat 32.3 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
     <t>41121</t>
   </si>
   <si>
@@ -420,6 +800,81 @@
     <t>https://www.tarladalal.com/almond-bhakri-gluten-free-almond-bhakri-41121r</t>
   </si>
   <si>
+    <t>Energy 169 cal
+Protein 3.5 g
+Carbohydrates 3.2 g
+Fiber 2 g
+Fat 16.5 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>39565</t>
+  </si>
+  <si>
+    <t>Almond Biryani</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>1/2 cup vertically sliced almonds (badam)
+3 cups cooked long grained rice
+2 tbsp ghee
+2 cloves (laung / lavang)
+2 cardamoms
+25 mm (1") stick cinnamon (dalchini)
+1 bayleaf (tejpatta)
+1 tsp caraway seeds (shahjeera)
+1/2 cup finely chopped onions
+1 tsp finely chopped garlic (lehsun)
+1/2 cup chopped and boiled french beans
+1/2 cup boiled green peas
+1 tsp finely chopped green chillies
+1 tbsp biryani masala
+1 tbsp lemon juice
+For The Garnish
+1/4 cup sliced and fried onions
+1 tbsp sliced and fried almonds (badam)</t>
+  </si>
+  <si>
+    <t>Heat the ghee in deep non-stick pan, add the almonds and sauté on a medium flame for 2 minutes. Drain and keep aside.
+Add the cloves, cardamom, cinnamon and bayleaf in the same non-stick pan and sauté on a medium flame for a few seconds.
+Add the caraway seeds and onions and sauté on a medium flame for 1 minute.
+Add the garlic and sauté on a medium flame for a few more seconds.
+Add the french beans, green peas, green chillies and biryani masala, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the almonds and rice, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the lemon juice and mix gently.
+Serve immediately garnished with fried onions and fried almonds.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-biryani-39565r</t>
+  </si>
+  <si>
+    <t>Energy 266 cal
+Protein 5.2 g
+Carbohydrates 8.1 g
+Fiber 2.3 g
+Fat 23.7 g
+Cholesterol 0 mg
+Vitamin A 157 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.8 mg
+Vitamin C 9.3 mg
+Folic Acid 8.3 mcg
+Calcium 60.2 mg
+Iron 1.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 2.6 mg
+Potassium 70 mg
+Zinc 0.7 mg</t>
+  </si>
+  <si>
     <t>41175</t>
   </si>
   <si>
@@ -448,6 +903,45 @@
     <t>https://www.tarladalal.com/almond-bread-homemade-almond-bread-without-eggs-41175r</t>
   </si>
   <si>
+    <t>Energy 124 cal
+Protein 4 g
+Carbohydrates 4.3 g
+Fiber 2.9 g
+Fat 10.9 g
+Cholesterol 0 mg
+Sodium 286.3 mg</t>
+  </si>
+  <si>
+    <t>42189</t>
+  </si>
+  <si>
+    <t>Almond Honey Cinnamon Milk, Healthy Vegan Breakfast Recipe</t>
+  </si>
+  <si>
+    <t>20 almonds (badam)
+1 tsp organic honey
+1 small stick cinnamon (dalchini)
+1/4 tsp vanilla essence</t>
+  </si>
+  <si>
+    <t>Combine the almonds, cinnamon, honey, vanilla essence and ¾ cup of cold water in a mixer and blend till smooth.
+We have used whole cinnamon stick instead of cinnamon powder, as it gives a correct taste and consistency to the milk.
+We recommend a high quality a bullet blender or a vitamix. If the quality of the blender is not good it will not be smooth and there will be small almond pieces left. We have also not strained the milk.
+Refrigerate till use and serve chilled. It lasts good in the fridge for 3 days we have tested it.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-honey-cinnamon-milk-healthy-vegan-breakfast-recipe-42189r</t>
+  </si>
+  <si>
+    <t>Energy 146 cal
+Protein 4.2 g
+Carbohydrates 6.2 g
+Fiber 0.3 g
+Fat 11.8 g
+Cholesterol 0 mg
+Sodium 0.2 mg</t>
+  </si>
+  <si>
     <t>40984</t>
   </si>
   <si>
@@ -466,6 +960,15 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/almond-milk-homemade-pure-almond-milk-40984r</t>
+  </si>
+  <si>
+    <t>Energy 131 cal
+Protein 4.2 g
+Carbohydrates 3.9 g
+Fiber 2.4 g
+Fat 11.8 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
   </si>
   <si>
     <t>140</t>
@@ -488,6 +991,15 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/almond-rocks-140r</t>
+  </si>
+  <si>
+    <t>Energy 31 cal
+Protein 0.9 g
+Carbohydrates 1.1 g
+Fiber 0 g
+Fat 2.7 g
+Cholesterol 0.8 mg
+Sodium 1 mg</t>
   </si>
   <si>
     <t>667</t>
@@ -507,6 +1019,597 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/almond-rocks-microwave-almond-rock-recipe-667r</t>
+  </si>
+  <si>
+    <t>33456</t>
+  </si>
+  <si>
+    <t>Almond Soup, Badam Soup, Badam Ka Soup</t>
+  </si>
+  <si>
+    <t>For Almond Soup
+20 almonds (badam)
+3 cups white stock
+2 tsp butter
+1 tbsp plain flour (maida)
+3 to 4 drops almond essence
+salt and to taste
+2 tbsp fresh cream
+For The Garnish
+2 tbsp roasted almond (badam) slivers</t>
+  </si>
+  <si>
+    <t>For almond soup
+To make almond soup, soak the almonds in hot water for 20 minutes, drain and remove the skin.
+Blend the almonds in a mixer till coarse. Keep aside.
+Heat the butter in a deep non-stick pan, add the plain flour and sauté on a medium flame for 30 seconds.
+Add the almond coarse paste, white stock and almond essence, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the fresh cream, salt and pepper and mix well.
+Serve the almond soup hot garnished with almond slivers.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-soup-badam-soup-badam-ka-soup-33456r</t>
+  </si>
+  <si>
+    <t>Energy 99 cal
+Protein 2 g
+Carbohydrates 8.1 g
+Fiber 0.9 g
+Fat 6.6 g
+Cholesterol 3.8 mg
+Sodium 18.7 mg</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>30810</t>
+  </si>
+  <si>
+    <t>Almond Til Chikki</t>
+  </si>
+  <si>
+    <t>1/4 cup black sesame seeds (kala til)
+1/2 cup powdered almonds (badam)
+1/3 cup grated jaggery (gur)
+1 tsp ghee
+1/2 tsp ghee for greasing</t>
+  </si>
+  <si>
+    <t>Heat a non-stick pan, add the sesame seeds and almonds and roast over a slow flame till they turn light golden in colour. Remove and keep aside to cool.
+Heat the ghee in the same pan, add the jaggery and simmer over a slow flame while stirring continuously, till the jaggery melts and caramelizes and forms a hard ball when you add a drop in a bowlful of cold water. Remove from the flame.
+Add the roasted sesame seeds and almonds and mix thoroughly.
+When slightly cool, divide the mixture into 10 equal pieces and shape each portion into rounds or mould into desire shapes, using different moulds or cookie cutters as shown in the picture.
+Cool completely and store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-til-chikki-30810r</t>
+  </si>
+  <si>
+    <t>2817</t>
+  </si>
+  <si>
+    <t>Aloo Aur Shakarkandi ki Chaat, Vrat Chaat</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>For The Aloo Aur Shakarkand ki Chaat
+2 cups boiled and peeled potato cubes
+2 cups boiled and peeled sweet potato (shakarkand) cubes
+3 tbsp oil
+6 tbsp khajur imli ki chutney
+4 tbsp green chutney
+1 cup whisked curds (dahi)
+For Sprinkling On Aloo Aur Shakarkand ki Chaat
+1/2 tsp black salt (sanchal)
+1/2 tsp roasted cumin seeds (jeera) powder
+1/2 tsp red chilli powder
+salt to taste
+Garnish For The Aloo Aur Shakarkand ki Chaat
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>To make the Aloo Aur Shakarkand ki Chaat recipe, heat the oil in a broad not-stick pan, add the potatoes and sweet potatoes and cook on a medium flame for 3 to 4 minute or till they turn golden brown in colour, while stirring occasionally.
+Remove from the flame and divide into 4 equal portions.
+Place a portion of the prepared mixture in a serving plate and top with 1½ tbsp of khajur imli ki chutney, 1 tbsp green chutney and ¼ cup of curds evenly over it.
+Sprinkle a little black salt, cumin seeds powder, chilli powder and salt evenly over it.
+Repeat steps 3 and 4 to make 3 more plates.
+Serve the Aloo Aur Shakarkand ki Chaat immediately garnished with coriander.
+Handy tip:
+While boiling potatoes and sweet potatoes for the Aloo Aur Shakarkand ki Chaat, make sure boil them in salted water.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-aur-shakarkandi-ki-chaat-vrat-chaat-2817r</t>
+  </si>
+  <si>
+    <t>41958</t>
+  </si>
+  <si>
+    <t>Aloo Fry Recipe, How To Make Potato Fry</t>
+  </si>
+  <si>
+    <t>2 cups potato cubes
+2 tbsp mustard (rai / sarson) oil
+1/4 tsp turmeric (haldi) powder
+1 tsp kashmiri red chilli powder
+1/2 tsp red chilli powder
+1 tsp coriander (dhania) powder
+1 tsp cumin seeds (jeera) powder
+1/4 tsp asafoetida (hing)
+1/2 tsp garam masala
+1/2 tsp dried mango powder (amchur)
+salt to taste
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-sick pan, add the potatoes and sauté on a medium flame for 6 to 7 minutes.
+Add the turmeric, kashmiri red chilli powder, red chilli powder, coriander powder, cumin seeds powder, asafoetida, garam masala, and salt , mix well and sauté on a medium flame for 7 minutes.
+Switch off the flame, add the dried mango powder and coriander and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-fry-recipe-how-to-make-potato-fry-41958r</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 1 g
+Carbohydrates 14 g
+Fiber 1.1 g
+Fat 10.1 g
+Cholesterol 0 mg
+Sodium 7.9 mg</t>
+  </si>
+  <si>
+    <t>30942</t>
+  </si>
+  <si>
+    <t>Aloo Hara Masala</t>
+  </si>
+  <si>
+    <t>For the masala paste
+1/4 tsp fenugreek (methi) seeds, soaked overnight in water
+1 1/2 tsp roughly chopped garlic (lehsun)
+1 tbsp roughly chopped ginger (adrak)
+2 green chillies, roughly chopped
+2 tbsp chopped mint leaves (phudina)
+2 tbsp chopped coriander (dhania)
+1 tbsp lemon juice
+salt to taste
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+2 cloves (laung / lavang)
+2 cardamoms (elaichi)
+2 tbsp mustard (rai / sarson) oil
+For the marinade
+1/2 cup fresh curds (dahi)
+1 tbsp oil
+1 tsp lemon juice
+1/2 tsp cumin seeds (jeera) powder
+1/2 tsp garam masala
+salt to taste
+Other ingredients
+2 cups parboiled potatoes, peeled and cut into 50 mm. (2") cubes
+1/2 cup capsicum, cut into 50 mm. (2") pieces
+1/2 cup tomatoes, deseeded and cut into 50 mm. (2") pieces
+1 tbsp oil for brushing
+a few onion rings for the garnish</t>
+  </si>
+  <si>
+    <t>For the masala paste
+Combine all the ingredients, except the oil, in a mixer and blend to a smooth paste.
+Heat the mustard oil in a kadhai, add the prepared paste and sauté for 2 minutes. Keep aside.
+How to proceed
+Combine all the ingredients for the marinade in a bowl, add the prepared masala paste and mix well.
+Add the potatoes, capsicum and tomatoes and allow them to marinate for 1 hour.
+Thread the potatoes, capsicum and tomatoes alternatively on wooden or metal skewers.
+Grill over a charcoal or electric barbeque till the vegetables are lightly and evenly browned on all sides (approx. 3 to 4 minutes) using oil for brushing.
+Serve hot garnished with onion rings.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-hara-masala-30942r</t>
+  </si>
+  <si>
+    <t>Energy 223 cal
+Protein 2.4 g
+Carbohydrates 14.2 g
+Fiber 1.8 g
+Fat 16.9 g
+Cholesterol 0 mg
+Vitamin A 447.4 mcg
+Vitamin B1 0.2 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.7 mg
+Vitamin C 41.9 mg
+Folic Acid 16 mcg
+Calcium 79.8 mg
+Iron 0.8 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 12.6 mg
+Potassium 188.9 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>2839</t>
+  </si>
+  <si>
+    <t>Aloo Ka Bomb</t>
+  </si>
+  <si>
+    <t>2 large potatoes , boiled and peeled
+butter for cooking
+For The Paneer Filling
+1/2 cup grated paneer (cottage cheese)
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+2 tbsp finely chopped mint leaves (phudina)
+1/2 tsp black salt (sanchal)
+1/2 tbsp oil
+salt to taste
+For The Topping
+green chutney</t>
+  </si>
+  <si>
+    <t>For the paneer filling
+Heat the oil in a broad non-stick pan and add the cumin seeds and asafoetida.
+When the cumin seeds crackle, add the green chillies, paneer, black salt and salt, mix well and cook on a medium flame for 1 minute, while stirring continuously.
+Add the coriander and mint and mix well.
+Divide the filling into 4 equal portions and keep aside.
+How to proceed
+Cool the potatoes completely and cut each potato horizontally into 2 halves.
+Scoop the center of each potato half a little, using a spoon so that a light depression is formed for the filling.
+Fill 1 portion of the filling into each potato case and press them well so the filling does not spill out.
+Heat a non-stick tava (griddle), place the stuffed potato cases on it with the stuffed side facing upwards and cook on a medium flame for 1 minute, using a little butter.
+Turn them upside down and cook on a medium flame for 1 minute.
+Top with the sev and green chutney and serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-ka-bomb-2839r</t>
+  </si>
+  <si>
+    <t>Energy 109 cal
+Protein 3.3 g
+Carbohydrates 9.6 g
+Fiber 0.8 g
+Fat 6.4 g
+Cholesterol 0 mg
+Sodium 4.7 mg</t>
+  </si>
+  <si>
+    <t>30960</t>
+  </si>
+  <si>
+    <t>Aloo Khaas</t>
+  </si>
+  <si>
+    <t>2 cups thickly sliced potatoes
+3 tbsp ghee
+1/2 tsp cumin seeds (jeera)
+1/2 tsp aniseeds (vilayati saunf)
+1/4 tsp nigella seeds (kalonji)
+1/4 tsp fenugreek (methi) seeds
+3 whole dry kashmiri red chillies , broken into pieces
+2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup thinly sliced onions
+1/4 tsp turmeric powder (haldi)
+salt to taste
+1/2 tsp chaat masala
+For The Garnish
+2 tsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Heat the ghee in a deep non-stick kadhai, add the cumin seeds, aniseeds, nigella seeds, fenugreek seeds and red chillies
+When the seeds crackle, add the ginger-garlic paste and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 5 minutes.
+Add the turmeric powder, potatoes and salt, mix well and cover with a lid and cook on a slow flame for 8 minutes or till the potatoes are cooked, while stirring occasionally.
+Add the chaat masala and mix well.
+Serve immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-khaas-30960r</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 0.9 g
+Carbohydrates 12 g
+Fiber 0.9 g
+Fat 13.1 g
+Cholesterol 0 mg
+Vitamin A 128.5 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0 mg
+Vitamin B3 0.6 mg
+Vitamin C 9.3 mg
+Folic Acid 8.8 mcg
+Calcium 9.5 mg
+Iron 0.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 5.7 mg
+Potassium 131.3 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>Aloo Masala Chaat</t>
+  </si>
+  <si>
+    <t>For Aloo Masala Chaat
+2 cups boiled and peeled potato cubes
+1 tsp chaat masala
+1 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tbsp oil
+1/2 tsp finely chopped ginger (adrak)
+1 tsp finely chopped green chillies
+1/2 cup grated tomatoes
+1/4 tsp chilli powder
+1/2 tbsp pomegranate (anardana) powder
+salt to taste
+2 tbsp water
+1 1/2 tsp lemon juice
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For aloo masala chaat
+To make aloo masala chaat, combine the potatoes, chaat masala and coriander-cumin seeds powder in a bowl and mix lightly. Keep aside.
+Heat the oil in a broad non-stick pan, add the ginger and green chillies and sauté on a medium flame for a few seconds.
+Add the tomatoes and cook on medium flame for 2 minutes, while stirring occasionally.
+Add the chilli powder, pomegranate powder and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the potato mixture and 2 tbsp water, mix gently and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Switch off the flame, add the lemon juice and mix gently.
+Serve the aloo masala chaat hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-masala-chaat-2417r</t>
+  </si>
+  <si>
+    <t>Energy 174 cal
+Protein 2.1 g
+Carbohydrates 23.9 g
+Fiber 2.8 g
+Fat 7.8 g
+Cholesterol 0 mg
+Sodium 18.3 mg</t>
+  </si>
+  <si>
+    <t>42434</t>
+  </si>
+  <si>
+    <t>Aloo Matar ki Sukhi Sabzi, Dry Aloo Matar</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>1 1/2 cups potato cubes
+1/2 cup green peas
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+salt to taste
+1 tsp chilli powder
+1/2 tsp cumin seeds (jeera) powder
+1 1/2 tsp coriander (dhania) powder
+1/4 tsp turmeric powder (haldi)
+1/2 tsp garam masala
+1/4 tsp dried mango powder (amchur)
+1/4 tsp chaat masala
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick pan and add the cumin seeds and asafoetida.
+When the seeds crackle, add the potatoes, green peas and little salt and sauté on a medium flame for 8 minutes.
+Add the chilli powder, cumin seeds powder, coriander powder, turmeric powder and garam masala, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add ¼ cup of water and salt, mix gently and cover with a lid and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the dried mango powder, chaat masala and coriander, mix gently and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-matar-ki-sukhi-sabzi-dry-aloo-matar-42434r</t>
+  </si>
+  <si>
+    <t>Energy 157 cal
+Protein 2.5 g
+Carbohydrates 14.2 g
+Fiber 2.9 g
+Fat 10.1 g
+Cholesterol 0 mg
+Sodium 8 mg</t>
+  </si>
+  <si>
+    <t>4323</t>
+  </si>
+  <si>
+    <t>Aloo Matar, Aloo Matar Sabzi</t>
+  </si>
+  <si>
+    <t>For Aloo Matar
+1 1/2 cups potatoes boiled , peeled and cubed
+1 cup boiled green peas
+1/2 tsp cumin seeds (jeera)
+3/4 cup chopped onions
+1 tsp finely chopped ginger (adrak)
+1 tsp green chilli paste
+1/2 tsp finely chopped garlic (lehsun)
+1 cup chopped tomatoes
+a pinch of turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp garam masala
+2 tbsp oil
+salt to taste
+For The Garnish
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>For aloo matar
+Heat the oil and add the cumin seeds and allow them to crackle. When they crackle, add the onions and sauté till they are translucent.
+Add the garlic, ginger,green chilli paste and tomatoes and simmer till the tomatoes are cooked. Mash lightly using a potato masher and add 1 tbsp water.
+Add the green peas,potatoes, salt,chilli powder, garam masala and and cook for 3 to 4 minutes.
+Add 1 cup of water and allow it to come to a boil.
+Mash 2 to 3 pieces of potatoes in the pan to thicken the gravy. Simmer till the aloo matar gravy thickens.
+Garnish the aloo matar with the coriander and serve hot with rotis or parathas.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-matar-aloo-matar-sabzi-4323r</t>
+  </si>
+  <si>
+    <t>Energy 155 cal
+Protein 3.7 g
+Carbohydrates 17.7 g
+Fiber 4.4 g
+Fat 7.7 g
+Cholesterol 0 mg
+Sodium 12.6 mg</t>
+  </si>
+  <si>
+    <t>22789</t>
+  </si>
+  <si>
+    <t>Aloo Methi</t>
+  </si>
+  <si>
+    <t>For Aloo Methi
+1 1/2 cups boiled and peeled potato cubes
+4 cups chopped fenugreek (methi) , washed and drained
+salt to taste
+4 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+1 tsp finely chopped green chillies
+2 whole dry kashmiri red chillies , broken into pieces
+1/2 tsp turmeric powder (haldi)
+2 tsp coriander-cumin seeds (dhania-jeera) powder</t>
+  </si>
+  <si>
+    <t>Aloo methi
+To make aloo methi, place the fenugreek leaves in a deep bowl, sprinkle a little salt over it, toss well and keep aside for 15 minutes.
+Squeeze out all the water from the fenugreek leaves and keep aside. Discard the squeezed water.
+Heat the oil in a deep non-stick pan, add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+When the seeds crackle, add the garlic, ginger, green chillies and red chillies and sauté on a medium flame for 30 seconds.
+Add the turmeric powder and potatoes, mix gently and cook on a medium flame for 5 minutes, while stirring occasionally.
+Add the fenugreek leaves, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the aloo methi sabzi hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-methi-22789r</t>
+  </si>
+  <si>
+    <t>Energy 244 cal
+Protein 2.4 g
+Carbohydrates 12.8 g
+Fiber 4.2 g
+Fat 20.4 g
+Cholesterol 0 mg
+Sodium 33.5 mg</t>
+  </si>
+  <si>
+    <t>4776</t>
+  </si>
+  <si>
+    <t>Aloo Methi Parathas</t>
+  </si>
+  <si>
+    <t>For The Dough
+1 cup whole wheat flour (gehun ka atta)
+1 tsp oil
+salt to taste
+For The Aloo Methi Stuffing
+1 1/4 cups boiled and mashed potatoes
+1 cup finely chopped fenugreek (methi) leaves
+2 tbsp oil
+1/2 tsp cumin seeds (jeera)
+2 tsp ginger-green chilli paste
+1/2 tsp turmeric powder (haldi)
+1 tsp coriander (dhania) powder
+1 tsp chaat masala
+salt to taste
+Other Ingredients For Aloo Methi Parathas
+whole wheat flour (gehun ka atta) for rolling
+6 tsp oil for cooking
+For Serving With Aloo Methi Parathas
+fresh curd (dahi)
+pickle</t>
+  </si>
+  <si>
+    <t>For the dough
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough water.
+Divide the dough into 5 equal portions and keep aside.
+For the methi aloo stuffing
+Heat the oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the fenugreek leaves and sauté on a medium flame for 2 minutes.
+Add the ginger-green chilli paste, turmeric powder, coriander powder, chaat masala and salt and sauté on a medium flame for a few seconds.
+Add the potatoes, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Divide the stuffing into 5 equal portions and keep aside.
+How to proceed to make aloo methi parathas
+To make aloo methi parathas, roll out one portion of the dough into a 100 mm. (4") diameter circle using a little whole wheat flour for rolling.
+Place one portion of the aloo methi stuffing in the centre of the circle, bring together all the sides in the centre and seal tightly.
+Roll out again into a 150 mm. (6") diameter circle, using a little whole wheat flour for rolling.
+Heat a non-stick tava (griddle) and cook the aloo methi parathas, using 1 tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 1 to 4 to make 4 more parathas.
+Serve the aloo methi parathas hot with fresh curds or pickle.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-methi-parathas-4776r</t>
+  </si>
+  <si>
+    <t>Energy 222 cal
+Protein 3.8 g
+Carbohydrates 24.4 g
+Fiber 4.1 g
+Fat 12.6 g
+Cholesterol 0 mg
+Sodium 12 mg</t>
+  </si>
+  <si>
+    <t>38469</t>
+  </si>
+  <si>
+    <t>Aloo Mutter Korma in White Gravy</t>
+  </si>
+  <si>
+    <t>1 1/4 cups boiled and peeled baby potatoes
+1 cup boiled green peas
+1 tbsp ghee
+2 cardamoms
+2 cloves (laung / lavang)
+1 bayleaf (tejpatta)
+1/4 cup fresh cream
+2 tbsp whisked fresh curds (dahi)
+1 tsp garam masala
+salt to taste
+To Be Blended Into A Smooth Paste (without Using Any Water)
+1 cup roughly chopped onions
+2 tbsp broken cashewnuts (kaju)
+1 tsp roughly chopped ginger (adrak)
+2 tsp roughly chopped green chillies</t>
+  </si>
+  <si>
+    <t>Heat the ghee in a deep non-stick pan, add the cardamom, cloves and bayleaf and sauté on a medium flame for 30 seconds.
+Add the prepared paste and sauté on a medium flame for 2 minutes.
+Add the fresh cream, curds, garam masala, 1 cup of water and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Add the potatoes and green peas, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-mutter-korma-in-white-gravy-38469r</t>
+  </si>
+  <si>
+    <t>Energy 204 cal
+Protein 5.3 g
+Carbohydrates 23.9 g
+Fiber 4.2 g
+Fat 9.6 g
+Cholesterol 1.2 mg
+Sodium 16.6 mg</t>
   </si>
 </sst>
 </file>
@@ -551,7 +1654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -591,6 +1694,9 @@
       <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -606,123 +1712,131 @@
         <v>16</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="K2" s="0"/>
+        <v>22</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>23</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K3" s="0"/>
+        <v>31</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="K4" s="0"/>
+        <v>39</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>40</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>16</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>28</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="I5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s" s="0">
+      <c r="K5" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="K5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
@@ -732,360 +1846,1283 @@
         <v>42</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="K6" s="0"/>
+        <v>47</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="K7" s="0"/>
+        <v>55</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="K8" s="0"/>
+        <v>63</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>64</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="K9" s="0"/>
+        <v>70</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>15</v>
-      </c>
       <c r="D10" t="s" s="0">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="K10" s="0"/>
+        <v>70</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>71</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="K11" s="0"/>
+        <v>78</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>15</v>
-      </c>
       <c r="D12" t="s" s="0">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="K12" s="0"/>
+        <v>84</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="K13" s="0"/>
+        <v>92</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>93</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="K14" s="0"/>
+        <v>98</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>99</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="K15" s="0"/>
+        <v>105</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>106</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>15</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="K16" s="0"/>
+      <c r="G34" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="L3:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="L3" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="L13" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="L19" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="L20" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="L21" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="L22" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="L23" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="L24" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="L25" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="L26" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="L27" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="L28" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="L39" t="s" s="0">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
